--- a/testbench.xlsx
+++ b/testbench.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="25600" windowHeight="13280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1580" windowWidth="25600" windowHeight="13280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>St. Dev</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>Std Dev</t>
   </si>
 </sst>
 </file>
@@ -375,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,284 +481,423 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <f>AVERAGE(B2:B3)</f>
+        <v>2.5672734999999998</v>
+      </c>
+      <c r="C4" s="1">
+        <f>AVERAGE(C2:C3)</f>
+        <v>1.7860353500000001</v>
+      </c>
+      <c r="D4" s="1">
+        <f>AVERAGE(D2:D3)</f>
+        <v>2.1868528</v>
+      </c>
+      <c r="E4" s="1">
+        <f>AVERAGE(E2:E3)</f>
+        <v>2.6285002500000001</v>
+      </c>
+      <c r="F4" s="1">
+        <f>AVERAGE(F2:F3)</f>
+        <v>2.8255053999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <f>AVERAGE(G2:G3)</f>
+        <v>3.0750660999999999</v>
+      </c>
+      <c r="H4" s="1">
+        <f>AVERAGE(H2:H3)</f>
+        <v>3.9140914999999996</v>
+      </c>
+      <c r="I4" s="1">
+        <f>AVERAGE(I2:I3)</f>
+        <v>1.8815583999999999</v>
+      </c>
+      <c r="J4" s="1">
+        <f>AVERAGE(J2:J3)</f>
+        <v>2.6751516</v>
+      </c>
+      <c r="K4" s="1">
+        <f>AVERAGE(K2:K3)</f>
+        <v>3.5673735999999998</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <f>POWER((B2-C12),2)</f>
-        <v>4.1034949269722801E-2</v>
-      </c>
-      <c r="C5" s="2">
-        <f>POWER((C2-C12),2)</f>
-        <v>1.7523528485896236</v>
-      </c>
-      <c r="D5" s="2">
-        <f>POWER((D2-C12),2)</f>
-        <v>6.2590707887822311E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <f>POWER((E2-C12),2)</f>
-        <v>6.8388020787023794E-3</v>
-      </c>
-      <c r="F5" s="2">
-        <f>POWER((F2-C12),2)</f>
-        <v>1.2832615546888213</v>
-      </c>
-      <c r="G5" s="2">
-        <f>POWER((G2-C12),2)</f>
-        <v>1.0993315946470219</v>
-      </c>
-      <c r="H5" s="2">
-        <f>POWER((H2-C12),2)</f>
-        <v>0.40227008153052174</v>
-      </c>
-      <c r="I5" s="2">
-        <f>POWER((I2-C12),2)</f>
-        <v>1.1506656596737237</v>
-      </c>
-      <c r="J5" s="2">
-        <f>POWER((J2-C12),2)</f>
-        <v>2.2170657584441038</v>
-      </c>
-      <c r="K5" s="2">
-        <f>POWER((K2-C12),2)</f>
-        <v>0.10206041001410227</v>
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>VAR(B2:B3)</f>
+        <v>6.986447424500046E-3</v>
+      </c>
+      <c r="C5">
+        <f>VAR(C2:C3)</f>
+        <v>0.3184964103974437</v>
+      </c>
+      <c r="D5">
+        <f>VAR(D2:D3)</f>
+        <v>1.1983668720327216</v>
+      </c>
+      <c r="E5">
+        <f>VAR(E2:E3)</f>
+        <v>5.4408856775044957E-2</v>
+      </c>
+      <c r="F5">
+        <f>VAR(F2:F3)</f>
+        <v>2.0728385739804818</v>
+      </c>
+      <c r="G5">
+        <f>VAR(G2:G3)</f>
+        <v>0.93616322078402092</v>
+      </c>
+      <c r="H5">
+        <f>VAR(H2:H3)</f>
+        <v>0.64775644921800435</v>
+      </c>
+      <c r="I5">
+        <f>VAR(I2:I3)</f>
+        <v>0.11859268174112092</v>
+      </c>
+      <c r="J5">
+        <f>VAR(J2:J3)</f>
+        <v>4.2246977740416813</v>
+      </c>
+      <c r="K5">
+        <f>VAR(K2:K3)</f>
+        <v>0.57708989606087968</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3">
-        <f>POWER((B3-C12),2)</f>
-        <v>7.1172591868225591E-3</v>
-      </c>
-      <c r="C6" s="2">
-        <f>POWER((C3-C12),2)</f>
-        <v>0.27630408526832312</v>
-      </c>
-      <c r="D6" s="2">
-        <f>POWER((D3-C12),2)</f>
-        <v>1.684693542010504</v>
-      </c>
-      <c r="E6" s="2">
-        <f>POWER((E3-C12),2)</f>
-        <v>6.1097087273062796E-2</v>
-      </c>
-      <c r="F6" s="2">
-        <f>POWER((F3-C12),2)</f>
-        <v>0.81591882316506359</v>
-      </c>
-      <c r="G6" s="2">
-        <f>POWER((G3-C12),2)</f>
-        <v>0.1022974017121228</v>
-      </c>
-      <c r="H6" s="2">
-        <f>POWER((H3-C12),2)</f>
-        <v>3.1415919413983198</v>
-      </c>
-      <c r="I6" s="2">
-        <f>POWER((I3-C12),2)</f>
-        <v>0.34301409284340323</v>
-      </c>
-      <c r="J6" s="2">
-        <f>POWER((J3-C12),2)</f>
-        <v>2.0101652050287013</v>
-      </c>
-      <c r="K6" s="2">
-        <f>POWER((K3-C12),2)</f>
-        <v>1.9426688227919007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <f>(B2-C12)/A12</f>
-        <v>-0.20527705802403162</v>
-      </c>
-      <c r="C8" s="2">
-        <f>(C2-C12)/A12</f>
-        <v>-1.3414492404421021</v>
-      </c>
-      <c r="D8" s="2">
-        <f>(D2-C12)/A12</f>
-        <v>0.25352360174467503</v>
-      </c>
-      <c r="E8" s="2">
-        <f>(E2-C12)/A12</f>
-        <v>8.3801826034032204E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <f>(F2-C12)/A12</f>
-        <v>1.1479449349411854</v>
-      </c>
-      <c r="G8" s="2">
-        <f>(G2-C12)/A12</f>
-        <v>1.0624972613738588</v>
-      </c>
-      <c r="H8" s="2">
-        <f>(H2-C12)/A12</f>
-        <v>0.64272076486155383</v>
-      </c>
-      <c r="I8" s="2">
-        <f>(I2-C12)/A12</f>
-        <v>-1.0870212661757459</v>
-      </c>
-      <c r="J8" s="2">
-        <f>(J2-C12)/A12</f>
-        <v>-1.5088732239034179</v>
-      </c>
-      <c r="K8" s="2">
-        <f>(K2-C12)/A12</f>
-        <v>0.32373683669701808</v>
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <f>STDEV(B2:B3)</f>
+        <v>8.3584971283718501E-2</v>
+      </c>
+      <c r="C6">
+        <f>STDEV(C2:C3)</f>
+        <v>0.56435486211907815</v>
+      </c>
+      <c r="D6">
+        <f>STDEV(D2:D3)</f>
+        <v>1.0946994436980051</v>
+      </c>
+      <c r="E6">
+        <f>STDEV(E2:E3)</f>
+        <v>0.23325706157594664</v>
+      </c>
+      <c r="F6">
+        <f>STDEV(F2:F3)</f>
+        <v>1.4397355916905303</v>
+      </c>
+      <c r="G6">
+        <f>STDEV(G2:G3)</f>
+        <v>0.9675552804796328</v>
+      </c>
+      <c r="H6">
+        <f>STDEV(H2:H3)</f>
+        <v>0.80483318098721823</v>
+      </c>
+      <c r="I6">
+        <f>STDEV(I2:I3)</f>
+        <v>0.34437288183177389</v>
+      </c>
+      <c r="J6">
+        <f>STDEV(J2:J3)</f>
+        <v>2.0554069606872702</v>
+      </c>
+      <c r="K6">
+        <f>STDEV(K2:K3)</f>
+        <v>0.75966433117586851</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <f>(B3-C12)/A12</f>
-        <v>-8.5490893342160076E-2</v>
-      </c>
-      <c r="C9" s="2">
-        <f>(C3-C12)/A12</f>
-        <v>-0.5326686257626414</v>
-      </c>
-      <c r="D9" s="2">
-        <f>(D3-C12)/A12</f>
-        <v>-1.315297273898852</v>
-      </c>
-      <c r="E9" s="2">
-        <f>(E3-C12)/A12</f>
-        <v>-0.25048038238240361</v>
-      </c>
-      <c r="F9" s="2">
-        <f>(F3-C12)/A12</f>
-        <v>-0.91534948313307307</v>
-      </c>
-      <c r="G9" s="2">
-        <f>(G3-C12)/A12</f>
-        <v>-0.3241124889955086</v>
-      </c>
-      <c r="H9" s="2">
-        <f>(H3-C12)/A12</f>
-        <v>1.7961324186375045</v>
-      </c>
-      <c r="I9" s="2">
-        <f>(I3-C12)/A12</f>
-        <v>-0.59349825478354501</v>
-      </c>
-      <c r="J9" s="2">
-        <f>(J3-C12)/A12</f>
-        <v>1.4367438278202023</v>
-      </c>
-      <c r="K9" s="2">
-        <f>(K3-C12)/A12</f>
-        <v>1.4124167187334402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="B10" s="3">
+        <f>POWER((B2-C17),2)</f>
+        <v>4.1034949269722801E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <f>POWER((C2-C17),2)</f>
+        <v>1.7523528485896236</v>
+      </c>
+      <c r="D10" s="2">
+        <f>POWER((D2-C17),2)</f>
+        <v>6.2590707887822311E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <f>POWER((E2-C17),2)</f>
+        <v>6.8388020787023794E-3</v>
+      </c>
+      <c r="F10" s="2">
+        <f>POWER((F2-C17),2)</f>
+        <v>1.2832615546888213</v>
+      </c>
+      <c r="G10" s="2">
+        <f>POWER((G2-C17),2)</f>
+        <v>1.0993315946470219</v>
+      </c>
+      <c r="H10" s="2">
+        <f>POWER((H2-C17),2)</f>
+        <v>0.40227008153052174</v>
+      </c>
+      <c r="I10" s="2">
+        <f>POWER((I2-C17),2)</f>
+        <v>1.1506656596737237</v>
+      </c>
+      <c r="J10" s="2">
+        <f>POWER((J2-C17),2)</f>
+        <v>2.2170657584441038</v>
+      </c>
+      <c r="K10" s="2">
+        <f>POWER((K2-C17),2)</f>
+        <v>0.10206041001410227</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <f>POWER((B3-C17),2)</f>
+        <v>7.1172591868225591E-3</v>
+      </c>
+      <c r="C11" s="2">
+        <f>POWER((C3-C17),2)</f>
+        <v>0.27630408526832312</v>
+      </c>
+      <c r="D11" s="2">
+        <f>POWER((D3-C17),2)</f>
+        <v>1.684693542010504</v>
+      </c>
+      <c r="E11" s="2">
+        <f>POWER((E3-C17),2)</f>
+        <v>6.1097087273062796E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <f>POWER((F3-C17),2)</f>
+        <v>0.81591882316506359</v>
+      </c>
+      <c r="G11" s="2">
+        <f>POWER((G3-C17),2)</f>
+        <v>0.1022974017121228</v>
+      </c>
+      <c r="H11" s="2">
+        <f>POWER((H3-C17),2)</f>
+        <v>3.1415919413983198</v>
+      </c>
+      <c r="I11" s="2">
+        <f>POWER((I3-C17),2)</f>
+        <v>0.34301409284340323</v>
+      </c>
+      <c r="J11" s="2">
+        <f>POWER((J3-C17),2)</f>
+        <v>2.0101652050287013</v>
+      </c>
+      <c r="K11" s="2">
+        <f>POWER((K3-C17),2)</f>
+        <v>1.9426688227919007</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <f>STDEV(B2:K3)</f>
-        <v>0.98681680237392111</v>
-      </c>
-      <c r="B12" s="3">
-        <f>SUM(B2:K3)</f>
-        <v>54.214817000000011</v>
-      </c>
-      <c r="C12" s="3">
-        <f>AVERAGE(B2:K3)</f>
-        <v>2.7107408500000005</v>
-      </c>
-      <c r="D12" s="2">
-        <f>VAR(B2:K3)</f>
-        <v>0.97380740144749056</v>
-      </c>
-      <c r="E12" s="3">
-        <f>SUM(B2:K3)</f>
-        <v>54.214817000000011</v>
-      </c>
-      <c r="F12" s="3">
-        <f>SUM(B5:K6)</f>
-        <v>18.502340627502388</v>
-      </c>
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <f>(B2-C17)/A17</f>
+        <v>-0.20527705802403162</v>
+      </c>
+      <c r="C13" s="2">
+        <f>(C2-C17)/A17</f>
+        <v>-1.3414492404421021</v>
+      </c>
+      <c r="D13" s="2">
+        <f>(D2-C17)/A17</f>
+        <v>0.25352360174467503</v>
+      </c>
+      <c r="E13" s="2">
+        <f>(E2-C17)/A17</f>
+        <v>8.3801826034032204E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <f>(F2-C17)/A17</f>
+        <v>1.1479449349411854</v>
+      </c>
+      <c r="G13" s="2">
+        <f>(G2-C17)/A17</f>
+        <v>1.0624972613738588</v>
+      </c>
+      <c r="H13" s="2">
+        <f>(H2-C17)/A17</f>
+        <v>0.64272076486155383</v>
+      </c>
+      <c r="I13" s="2">
+        <f>(I2-C17)/A17</f>
+        <v>-1.0870212661757459</v>
+      </c>
+      <c r="J13" s="2">
+        <f>(J2-C17)/A17</f>
+        <v>-1.5088732239034179</v>
+      </c>
+      <c r="K13" s="2">
+        <f>(K2-C17)/A17</f>
+        <v>0.32373683669701808</v>
+      </c>
+      <c r="L13">
+        <f>SUM(B13:K13)</f>
+        <v>-0.62839556289297405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <f>(B3-C17)/A17</f>
+        <v>-8.5490893342160076E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <f>(C3-C17)/A17</f>
+        <v>-0.5326686257626414</v>
+      </c>
+      <c r="D14" s="2">
+        <f>(D3-C17)/A17</f>
+        <v>-1.315297273898852</v>
+      </c>
+      <c r="E14" s="2">
+        <f>(E3-C17)/A17</f>
+        <v>-0.25048038238240361</v>
+      </c>
+      <c r="F14" s="2">
+        <f>(F3-C17)/A17</f>
+        <v>-0.91534948313307307</v>
+      </c>
+      <c r="G14" s="2">
+        <f>(G3-C17)/A17</f>
+        <v>-0.3241124889955086</v>
+      </c>
+      <c r="H14" s="2">
+        <f>(H3-C17)/A17</f>
+        <v>1.7961324186375045</v>
+      </c>
+      <c r="I14" s="2">
+        <f>(I3-C17)/A17</f>
+        <v>-0.59349825478354501</v>
+      </c>
+      <c r="J14" s="2">
+        <f>(J3-C17)/A17</f>
+        <v>1.4367438278202023</v>
+      </c>
+      <c r="K14" s="2">
+        <f>(K3-C17)/A17</f>
+        <v>1.4124167187334402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <f>STDEV(B2:K3)</f>
+        <v>0.98681680237392111</v>
+      </c>
+      <c r="B17" s="3">
+        <f>SUM(B2:K3)</f>
+        <v>54.214817000000011</v>
+      </c>
+      <c r="C17" s="3">
+        <f>AVERAGE(B2:K3)</f>
+        <v>2.7107408500000005</v>
+      </c>
+      <c r="D17" s="2">
+        <f>VAR(B2:K3)</f>
+        <v>0.97380740144749056</v>
+      </c>
+      <c r="E17" s="3">
+        <f>SUM(B2:K3)</f>
+        <v>54.214817000000011</v>
+      </c>
+      <c r="F17" s="3">
+        <f>SUM(B10:K11)</f>
+        <v>18.502340627502388</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
